--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haowei/PycharmProjects/lyrics-generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFE8F5F-6A38-4D46-AB04-AF409D050596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF76D1D-4E94-DA4D-872C-053E5F0B6A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{393014A0-154A-3347-8B3D-37762EC76AA4}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{393014A0-154A-3347-8B3D-37762EC76AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="n-gram" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>5-gram</t>
   </si>
@@ -116,6 +116,74 @@
 Then I hold you burn so easily
 What I'd give to me
 Is it d-d-destiny, d-destiny, d-destiny, d-destiny, d-destiny, d-destiny, d-destiny, d-destiny</t>
+  </si>
+  <si>
+    <t>4-gram</t>
+  </si>
+  <si>
+    <t>r&amp;b</t>
+  </si>
+  <si>
+    <t>I I could begin though the more, I don't be respecial will be back to you was fade
+wear these people the jamming about
+Whatever for the bit on me
+Why'd givine
+and i for you gotta right
+If your mind on, blame
+Than stand war
+On 02 14 03.</t>
+  </si>
+  <si>
+    <t>train, r&amp;b</t>
+  </si>
+  <si>
+    <t>The heal me
+tell you better so long to be
+I've giveness, hey
+i hope
+Livin? insided the actressing
+let me
+Please your fake their wish this is far
+the found and sixty-two
+And late, yeah, that you
+I don't even competitionally calmed this is hold out, no no)</t>
+  </si>
+  <si>
+    <t>test, r&amp;b</t>
+  </si>
+  <si>
+    <t>test, indie</t>
+  </si>
+  <si>
+    <t>R&amp;B model</t>
+  </si>
+  <si>
+    <t>Indie model</t>
+  </si>
+  <si>
+    <t>She was
+If I was broken home 
+if she'd everybody's take a watchin' for, 2004.
+And you no matter
+summertime, one that day or no biblical like when we used to be love a window you by my heartache, what your name our Savior comes to aching hurts me
+He healer without speaks unto you as hard and the wearing a wish I want to give
+Oh, I love with you
+why don't know God made something your proper.
+It's so caliente
+you didn't fuck bitch black and see you</t>
+  </si>
+  <si>
+    <t>Indie</t>
+  </si>
+  <si>
+    <t>You're down to
+Take you'll love, got me over knew
+That the eyes with my girls are wing a his fat glove your arc
+Porce sacrawling. all my hello, we'll looking
+Gossibles and Your voice the mares
+They clean maybe than I can't way I don't sleep beliefs
+This horse on come countain 
+But our life could god sprince of ourself</t>
   </si>
 </sst>
 </file>
@@ -470,50 +538,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7180557A-E0FE-DC43-93C5-3D6A05D15F04}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.5" customWidth="1"/>
-    <col min="2" max="2" width="64.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="53.5" customWidth="1"/>
+    <col min="4" max="4" width="64.33203125" customWidth="1"/>
+    <col min="5" max="5" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -523,39 +617,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E98CB-CF6F-D74B-A664-23745C74FAB5}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3">
         <v>149.90236795465</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>170.52251214142899</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>156.780586493405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>137.94478271881999</v>
+      </c>
+      <c r="C7">
+        <v>129.427403311397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>138.731975636116</v>
+      </c>
+      <c r="C8">
+        <v>132.65</v>
+      </c>
+      <c r="D8">
+        <v>137.773881935155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>153.427836125683</v>
+      </c>
+      <c r="D9">
+        <v>162.16169838991601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haowei/PycharmProjects/lyrics-generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF76D1D-4E94-DA4D-872C-053E5F0B6A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A62558-6C2B-2543-9D1E-E1629AFAB3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{393014A0-154A-3347-8B3D-37762EC76AA4}"/>
+    <workbookView xWindow="43240" yWindow="9440" windowWidth="20200" windowHeight="17440" activeTab="1" xr2:uid="{393014A0-154A-3347-8B3D-37762EC76AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="n-gram" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>5-gram</t>
   </si>
@@ -184,6 +184,34 @@
 They clean maybe than I can't way I don't sleep beliefs
 This horse on come countain 
 But our life could god sprince of ourself</t>
+  </si>
+  <si>
+    <t>Sweet apology
+Then bad line of these world whiskey and sleep 'cause you're nothings that's wrong (shout
+You thing's the wet myself out for You
+My little more electric with dreamed Sadie
+Yeah, you weren't wear I've that bring is up
+Rider of us don't be a funk that family.
+The airport to hide you
+(Verse)
+I wrote and stuffed in the way I hear</t>
+  </si>
+  <si>
+    <t>Greasy here 
+What a Swedish generation?
+Am I repeated)
+I luv ya (layered little now
+Oh, you must be having now 
+I'll take my past if for the ooooooooooo
+there's a lesson to the need to take
+we're both breadcrumbs
+And you could ask what's all you</t>
+  </si>
+  <si>
+    <t>[{'grammar_score': 0.0, 'rhyme': False, 'bleu_score': 0, 'rouge_score': 0.0, 'bert_score': 0.8252407, 'ld_score': 1.0, 'plagiarism': False}, {'grammar_score': 0.0, 'rhyme': nan, 'bleu_score': 0, 'rouge_score': 0.0, 'bert_score': 0.8141163, 'ld_score': 1.0, 'plagiarism': False}, {'grammar_score': 0.0, 'rhyme': False, 'bleu_score': 2.7728315388545244e-257, 'rouge_score': 0.0, 'bert_score': 0.8302754, 'ld_score': 1.0, 'plagiarism': False}]</t>
+  </si>
+  <si>
+    <t>[{'grammar_score': 0.047619047619047616, 'rhyme': False, 'bleu_score': 0, 'rouge_score': 0.0, 'bert_score': 0.79378194, 'ld_score': 1.0, 'plagiarism': False}, {'grammar_score': 0.0, 'rhyme': False, 'bleu_score': 0, 'rouge_score': 0.0, 'bert_score': 0.8270347, 'ld_score': 1.0, 'plagiarism': False}, {'grammar_score': 0.0, 'rhyme': False, 'bleu_score': 4.353573398748715e-206, 'rouge_score': 0.16666666166666683, 'bert_score': 0.8212774, 'ld_score': 1.0, 'plagiarism': False}]</t>
   </si>
 </sst>
 </file>
@@ -540,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7180557A-E0FE-DC43-93C5-3D6A05D15F04}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,6 +637,12 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E98CB-CF6F-D74B-A664-23745C74FAB5}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,6 +757,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
